--- a/InstagramMavenTestNg/src/test/resources/TestData/mytestData.xlsx
+++ b/InstagramMavenTestNg/src/test/resources/TestData/mytestData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>userName</t>
   </si>
@@ -26,40 +26,43 @@
     <t>email</t>
   </si>
   <si>
-    <t>pranav</t>
+    <t>mobile no</t>
+  </si>
+  <si>
+    <t>Pranav</t>
   </si>
   <si>
     <t>A12356789</t>
   </si>
   <si>
+    <t>pranav@gmail.com</t>
+  </si>
+  <si>
+    <t>Sangita</t>
+  </si>
+  <si>
+    <t>S45667668</t>
+  </si>
+  <si>
     <t>sangita@gmail.com</t>
   </si>
   <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>D456</t>
-  </si>
-  <si>
-    <t>GHI</t>
-  </si>
-  <si>
-    <t>G787</t>
-  </si>
-  <si>
-    <t>JKL</t>
-  </si>
-  <si>
-    <t>J656</t>
-  </si>
-  <si>
-    <t>MNO</t>
-  </si>
-  <si>
-    <t>M343</t>
-  </si>
-  <si>
-    <t>Ram</t>
+    <t>Naresh</t>
+  </si>
+  <si>
+    <t>N7877667</t>
+  </si>
+  <si>
+    <t>naresh@gmail.com</t>
+  </si>
+  <si>
+    <t>Vedika</t>
+  </si>
+  <si>
+    <t>V6567676</t>
+  </si>
+  <si>
+    <t>vedika@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -83,15 +86,15 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,12 +546,12 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,9 +676,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -995,18 +1000,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
+    <col min="2" max="2" width="10.3636363636364" customWidth="1"/>
     <col min="3" max="3" width="18.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="13.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1016,61 +1023,72 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>9867543413</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>9744542335</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>8765455789</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
-        <v>1234</v>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>74233545568</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="sangita@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId1" display="sangita@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId2" display="pranav@gmail.com"/>
+    <hyperlink ref="C4" r:id="rId3" display="naresh@gmail.com"/>
+    <hyperlink ref="C5" r:id="rId4" display="vedika@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
